--- a/biology/Zoologie/Alburnus_vistonicus/Alburnus_vistonicus.xlsx
+++ b/biology/Zoologie/Alburnus_vistonicus/Alburnus_vistonicus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Alburnus vistonicus est un poisson d'eau douce de la famille des Cyprinidae.
@@ -512,9 +524,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Alburnus vistonicus est endémique de Grèce. Cette espèce se rencontre dans le bassin du lac Vistonída[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Alburnus vistonicus est endémique de Grèce. Cette espèce se rencontre dans le bassin du lac Vistonída.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La taille maximale connue pour Alburnus vistonicus est de 217 mm[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La taille maximale connue pour Alburnus vistonicus est de 217 mm.
 </t>
         </is>
       </c>
@@ -574,7 +590,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Son nom d'espèce lui a été donné en référence à son lieu de découverte, le lac Vistonída.
 </t>
@@ -605,9 +623,11 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Freyhof &amp; Kottelat, 2007 : Review of the Alburnus mento species group with description of two new species (Teleostei: Cyrinidae). Ichthyological Exploration of Freshwaters , vol. 18, n. 3, p. 213-225[4] (introduction).</t>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Freyhof &amp; Kottelat, 2007 : Review of the Alburnus mento species group with description of two new species (Teleostei: Cyrinidae). Ichthyological Exploration of Freshwaters , vol. 18, n. 3, p. 213-225 (introduction).</t>
         </is>
       </c>
     </row>
